--- a/Design/Excel/ConditionTable.xlsx
+++ b/Design/Excel/ConditionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8338A536-E471-422D-A6DB-E82BECD275DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8BB30A-2792-4327-A7E8-9AF2B7E45886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,38 +25,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>string</t>
   </si>
   <si>
     <t>type</t>
-  </si>
-  <si>
-    <t>animationCondition</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ComboCondition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inputCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WaitCondition</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Animation]:1/[Attack]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Animation]:1</t>
   </si>
 </sst>
 </file>
@@ -381,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -394,48 +391,36 @@
     <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Excel/ConditionTable.xlsx
+++ b/Design/Excel/ConditionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8BB30A-2792-4327-A7E8-9AF2B7E45886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FB5088-8B9C-4156-A512-4C31176096AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RawCondition" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>ComboCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WaitCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -49,11 +41,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Animation]:1/[Attack]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Animation]:1</t>
+    <t>[Combo]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AnimationWait]:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AnimationAllWait]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AnimationWait]:1/[Attack]:Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -381,13 +382,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="67.375" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -396,7 +397,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -404,23 +405,23 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Excel/ConditionTable.xlsx
+++ b/Design/Excel/ConditionTable.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FB5088-8B9C-4156-A512-4C31176096AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3629BCE4-0105-430F-A43D-BDC57D10878D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RawCondition" sheetId="1" r:id="rId1"/>
+    <sheet name="CharacterRawCondition" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -382,7 +382,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Design/Excel/ConditionTable.xlsx
+++ b/Design/Excel/ConditionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3629BCE4-0105-430F-A43D-BDC57D10878D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F1CDA4-A779-4BEE-9441-ADBBA9CA569C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11625" yWindow="2070" windowWidth="15585" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterRawCondition" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>string</t>
   </si>
@@ -45,15 +45,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[AnimationWait]:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[AnimationAllWait]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[AnimationWait]:1/[Attack]:Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AnimationWait]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Attack]:Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[NormalAttack]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -410,17 +414,25 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Design/Excel/ConditionTable.xlsx
+++ b/Design/Excel/ConditionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F1CDA4-A779-4BEE-9441-ADBBA9CA569C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F93484B-9D97-4FE8-BC8B-D4C64FE09C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11625" yWindow="2070" windowWidth="15585" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterRawCondition" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>string</t>
   </si>
@@ -45,19 +45,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[AnimationWait]:1/[Attack]:Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[AnimationWait]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[Attack]:Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[NormalAttack]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AnimationWait]:1</t>
+  </si>
+  <si>
+    <t>[AnimationAllWait]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AnimationAllWait]/[NormalAttack]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[MoveAny]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Move]:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[JumpUp]</t>
+  </si>
+  <si>
+    <t>[JumpDown]</t>
+  </si>
+  <si>
+    <t>[Guard]</t>
+  </si>
+  <si>
+    <t>[Dash]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># [Attack] : Normal / Skill / Ultimate </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># [AnimationWait] : 0 ~ 1 </t>
+  </si>
+  <si>
+    <t># 디폴트 타입 [AnimationWait]
+	[Attack],
+	[JumpUp],
+	[JumpDown],
+	[Guard],
+	[Move],
+	[Dash]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># [Move] : 0 ~ 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,8 +144,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -383,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -414,27 +460,90 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Design/Excel/ConditionTable.xlsx
+++ b/Design/Excel/ConditionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F93484B-9D97-4FE8-BC8B-D4C64FE09C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F4DD36-F9B5-4DF2-8702-232F92306244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterRawCondition" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>string</t>
   </si>
@@ -42,33 +42,6 @@
   </si>
   <si>
     <t>[Combo]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Attack]:Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[NormalAttack]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[AnimationWait]:1</t>
-  </si>
-  <si>
-    <t>[AnimationAllWait]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[AnimationAllWait]/[NormalAttack]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[MoveAny]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Move]:0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -101,6 +74,26 @@
   </si>
   <si>
     <t># [Move] : 0 ~ 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Move]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AnimationWait]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Attack]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AnimationWait]:0.9/[Attack]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +425,7 @@
   <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -460,7 +453,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -468,7 +461,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -476,7 +469,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -484,7 +477,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -492,26 +485,26 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -519,27 +512,27 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">

--- a/Design/Excel/ConditionTable.xlsx
+++ b/Design/Excel/ConditionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F4DD36-F9B5-4DF2-8702-232F92306244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C12CE9-F056-4D50-ACA0-A18CB59EB477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterRawCondition" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>string</t>
   </si>
@@ -45,55 +45,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[JumpUp]</t>
-  </si>
-  <si>
-    <t>[JumpDown]</t>
-  </si>
-  <si>
-    <t>[Guard]</t>
-  </si>
-  <si>
-    <t>[Dash]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># [Attack] : Normal / Skill / Ultimate </t>
-  </si>
-  <si>
-    <t xml:space="preserve"># [AnimationWait] : 0 ~ 1 </t>
-  </si>
-  <si>
-    <t># 디폴트 타입 [AnimationWait]
-	[Attack],
-	[JumpUp],
-	[JumpDown],
-	[Guard],
-	[Move],
-	[Dash]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># [Move] : 0 ~ 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Move]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[AnimationWait]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Attack]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[AnimationWait]:0.9/[Attack]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[FallDown]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PressJump]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PressMove]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AnimationWaitTime]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PressAttack]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># NoParamter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 0 ~ 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"># Normal / Skill / Ultimate </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Grounded]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AnimationWaitTime]:0.9*[PressAttack]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PressDash]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PressGuard]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[GoUp]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PressJump]+[GoUp]*[Grounded]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># Composite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,20 +438,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.625" customWidth="1"/>
-    <col min="2" max="2" width="67.375" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="30.59765625" customWidth="1"/>
+    <col min="2" max="2" width="67.3984375" customWidth="1"/>
+    <col min="3" max="3" width="25.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -451,95 +467,136 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Design/Excel/ConditionTable.xlsx
+++ b/Design/Excel/ConditionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C12CE9-F056-4D50-ACA0-A18CB59EB477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB84774B-3CCE-43E7-A3B6-07B58E6ADE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterRawCondition" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>string</t>
   </si>
@@ -105,11 +105,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[PressJump]+[GoUp]*[Grounded]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t># Composite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[GoUp]*[Grounded]+[PressJump]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[JumpDown]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[FallDown]*[Grounded]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,17 +449,17 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="2" width="67.3984375" customWidth="1"/>
-    <col min="3" max="3" width="25.69921875" customWidth="1"/>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="67.375" customWidth="1"/>
+    <col min="3" max="3" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -467,7 +475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -478,7 +486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -489,7 +497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -500,7 +508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -511,7 +519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -522,7 +530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -533,7 +541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -544,7 +552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -555,7 +563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -566,32 +574,43 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
     </row>
   </sheetData>

--- a/Design/Excel/ConditionTable.xlsx
+++ b/Design/Excel/ConditionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB84774B-3CCE-43E7-A3B6-07B58E6ADE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F2F0B9-A302-478A-AA59-811AED6F208A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9960" yWindow="1128" windowWidth="11940" windowHeight="10032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterRawCondition" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>string</t>
   </si>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[AnimationWaitTime]:0.9*[PressAttack]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[PressDash]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,15 +105,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[GoUp]*[Grounded]+[PressJump]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[JumpDown]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[FallDown]*[Grounded]</t>
+    <t>[Dash]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 0 / 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PressMove]*[Grounded]:1*[PressDash]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[FallDown]*[Grounded]:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[GoUp]*[Grounded]:0+[PressJump]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Damage]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 0 ~ 1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PressSkill]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PressAttack]:Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PressUltimate]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PressAttack]:Ultimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AnimationWaitTime]:0.95*[PressAttack]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,18 +484,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.625" customWidth="1"/>
-    <col min="2" max="2" width="67.375" customWidth="1"/>
-    <col min="3" max="3" width="25.75" customWidth="1"/>
+    <col min="1" max="1" width="30.59765625" customWidth="1"/>
+    <col min="2" max="2" width="67.3984375" customWidth="1"/>
+    <col min="3" max="3" width="25.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -475,9 +511,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -486,9 +522,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -497,7 +533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -508,7 +544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -519,7 +555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -530,7 +566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -541,7 +577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -552,9 +588,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -563,54 +599,95 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
     </row>
   </sheetData>

--- a/Design/Excel/ConditionTable.xlsx
+++ b/Design/Excel/ConditionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F2F0B9-A302-478A-AA59-811AED6F208A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F36D561-9339-49C0-8C2C-5CF40DC2ECCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="1128" windowWidth="11940" windowHeight="10032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2292" yWindow="2328" windowWidth="11940" windowHeight="10032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterRawCondition" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[AnimationWaitTime]:0.95*[PressAttack]</t>
+    <t>[AnimationWaitTime]:0.9*[PressAttack]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
